--- a/2session/excelFilesAndScriptDB/Excel/мероприятияиактивности_активности(изм).xlsx
+++ b/2session/excelFilesAndScriptDB/Excel/мероприятияиактивности_активности(изм).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\source\repos\KuzminWorkOnUP\2session\excelFilesAndScriptDB\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE77FD58-F4D4-47F7-B22D-9ACE1E8E632F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0640D392-B6B7-4EF8-9EF3-D797DFDC15AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="21024" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Краткая информация" sheetId="1" r:id="rId1"/>
@@ -621,8 +621,8 @@
   </sheetPr>
   <dimension ref="A1:Q118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -640,7 +640,7 @@
     <col min="11" max="11" width="9.33203125" style="3" customWidth="1"/>
     <col min="12" max="12" width="6.88671875" style="3" customWidth="1"/>
     <col min="13" max="13" width="8.109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="6.5546875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9.77734375" style="3" customWidth="1"/>
     <col min="16" max="16" width="10" customWidth="1"/>
     <col min="17" max="17" width="44.109375" customWidth="1"/>
   </cols>
